--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2521244.937507654</v>
+        <v>-2523939.734783502</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>141.9706635999826</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>9.187652023183476</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>16.13769909905752</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,10 +826,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>96.59359980192556</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>56.558171929981</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92.1165986775123</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>122.4697505703102</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.3965174940282</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>2.03518000201216</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>116.2928125516888</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>88.91933018746646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>240.5961408007928</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>48.31468638489521</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>103.5745801383492</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>38.76543552489266</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>243.1373908222617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>53.08838020946239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
         <v>142.9621736065881</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541836</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V25" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W25" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652572</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,19 +2767,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969982</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096051</v>
@@ -3004,19 +3004,19 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652544</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.6965460670935</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>909.6965460670935</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>909.6965460670935</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>909.6965460670935</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>498.710641277486</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1634.970074863985</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.296386131215</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>680.4536379130279</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1239.664673020723</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U4" t="n">
-        <v>1239.664673020723</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V4" t="n">
-        <v>984.9801848148363</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W4" t="n">
-        <v>927.850718218896</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X4" t="n">
-        <v>699.8611673208786</v>
+        <v>1082.894681886798</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>862.1021027432677</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1339.947027944958</v>
+        <v>956.372303282041</v>
       </c>
       <c r="C5" t="n">
-        <v>970.9845110045464</v>
+        <v>956.372303282041</v>
       </c>
       <c r="D5" t="n">
-        <v>970.9845110045464</v>
+        <v>956.372303282041</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>956.372303282041</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>545.3863984924335</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2100.01262627016</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X5" t="n">
-        <v>1726.54686800908</v>
+        <v>1733.111475321974</v>
       </c>
       <c r="Y5" t="n">
-        <v>1726.54686800908</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.2684398664087</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>351.3322569385018</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>201.2156175261661</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>53.30252394377297</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>53.30252394377297</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>53.30252394377297</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4753,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.699034738196</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X7" t="n">
-        <v>922.7094838401786</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.9169046966484</v>
+        <v>699.731003034914</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2049.196691315586</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.234174375174</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1321.968475768424</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379708</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>2435.796531379708</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1684.268143239207</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1429.58365503332</v>
       </c>
       <c r="W10" t="n">
-        <v>1175.936468090393</v>
+        <v>1140.166484996359</v>
       </c>
       <c r="X10" t="n">
-        <v>1175.936468090393</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,7 +5118,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5188,7 +5188,7 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2407.806077999561</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2224.951243654466</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2005.349778677406</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1716.274552021604</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1461.590063815717</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1172.172893778757</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>944.1833428807391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2443.925817935984</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2261.070983590888</v>
       </c>
       <c r="T22" t="n">
-        <v>2393.338457106056</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>2104.263230450254</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1849.578742244367</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1560.161572207407</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>1332.172021309389</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,13 +7023,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,28 +7351,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,25 +7555,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7795,28 +7795,28 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7825,16 +7825,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838286</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>240.4465442417433</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>269.5770391729714</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>340.0533166942295</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>151.1091219995703</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.91735942254055</v>
       </c>
       <c r="W4" t="n">
-        <v>229.96482640661</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>182.9484181982418</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>27.609811185229</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>63.36835372228757</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.3170701178259</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>20178.66499225016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
         <v>20178.66499225016</v>
@@ -26341,19 +26341,19 @@
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.0442466071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29520.00810516213</v>
+        <v>29520.00810516217</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309558</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744315</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744308</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="I4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="J4" t="n">
         <v>16718.11565483776</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="L4" t="n">
         <v>16718.11565483775</v>
@@ -26454,7 +26454,7 @@
         <v>16718.11565483774</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483773</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1221326.487794565</v>
+        <v>-1221790.78458659</v>
       </c>
       <c r="C6" t="n">
-        <v>-207933.8651702207</v>
+        <v>-207933.8651702208</v>
       </c>
       <c r="D6" t="n">
-        <v>-367949.3279182197</v>
+        <v>-367949.3279182195</v>
       </c>
       <c r="E6" t="n">
-        <v>-415083.5830307564</v>
+        <v>-415118.3209561923</v>
       </c>
       <c r="F6" t="n">
-        <v>-89671.12122340128</v>
+        <v>-89705.85914883693</v>
       </c>
       <c r="G6" t="n">
-        <v>-89671.12122340129</v>
+        <v>-89705.85914883694</v>
       </c>
       <c r="H6" t="n">
-        <v>-89671.12122340123</v>
+        <v>-89705.85914883696</v>
       </c>
       <c r="I6" t="n">
-        <v>-118783.9052557778</v>
+        <v>-118783.9052557779</v>
       </c>
       <c r="J6" t="n">
         <v>-266961.3650721286</v>
       </c>
       <c r="K6" t="n">
-        <v>-99356.18726214606</v>
+        <v>-99356.18726214608</v>
       </c>
       <c r="L6" t="n">
-        <v>-147650.1572703368</v>
+        <v>-147650.1572703367</v>
       </c>
       <c r="M6" t="n">
         <v>-184411.2151976579</v>
@@ -26558,10 +26558,10 @@
         <v>-118783.9052557778</v>
       </c>
       <c r="O6" t="n">
-        <v>-99356.18726214604</v>
+        <v>-99356.18726214605</v>
       </c>
       <c r="P6" t="n">
-        <v>-99356.18726214605</v>
+        <v>-99356.18726214606</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="N2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203972</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,28 +26920,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>124.1550961952864</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2202839012874</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>289.8137713947495</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>289.0779522026438</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.4354626879091</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>145.2163291531167</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>248.9800792193187</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>293.0110398847953</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>45.61569740482008</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>238.2083119516958</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236507</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>687.0167715190038</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,16 +33743,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>639.4703354763103</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,19 +34214,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>607.3778765237839</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,16 +35027,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,10 +36762,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>544.4205270745593</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>508.128623392977</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,19 +37862,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
